--- a/sem1/Успеваемость_С-ИП-21-1.xlsx
+++ b/sem1/Успеваемость_С-ИП-21-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/software-modeling-and-analysis/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71BA94C-5E7E-E340-9A43-C470BE4CF225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251B6130-400D-F046-A413-EC579C873B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="24">
   <si>
     <t>№</t>
   </si>
@@ -98,6 +98,12 @@
   </si>
   <si>
     <t>Лаб 1</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>Лаб 2</t>
   </si>
 </sst>
 </file>
@@ -279,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -294,7 +300,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -372,7 +377,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -380,6 +384,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1593,16 +1606,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="185" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="185" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E19" sqref="E19"/>
+      <selection pane="topRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="34.5" style="1" customWidth="1"/>
-    <col min="3" max="18" width="9.1640625" style="1" customWidth="1"/>
+    <col min="3" max="6" width="6.33203125" style="45" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="9.1640625" style="45" customWidth="1"/>
+    <col min="11" max="18" width="9.1640625" style="1" customWidth="1"/>
     <col min="19" max="21" width="8.83203125" style="1" customWidth="1"/>
     <col min="22" max="16384" width="8.83203125" style="1"/>
   </cols>
@@ -1614,20 +1629,22 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="44">
         <v>45174</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="44">
         <v>45182</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="44">
         <v>45188</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="F1" s="44">
+        <v>45196</v>
+      </c>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
       <c r="K1" s="4"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
@@ -1637,14 +1654,14 @@
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
       <c r="S1" s="5"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
     </row>
     <row r="2" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
@@ -1653,37 +1670,39 @@
       <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="31"/>
-      <c r="AA2" s="31"/>
+      <c r="C2" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
     </row>
     <row r="3" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
@@ -1692,37 +1711,39 @@
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="31"/>
+      <c r="C3" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="30"/>
+      <c r="AA3" s="30"/>
     </row>
     <row r="4" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
@@ -1731,37 +1752,39 @@
       <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
+      <c r="C4" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="30"/>
+      <c r="AA4" s="30"/>
     </row>
     <row r="5" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
@@ -1770,37 +1793,39 @@
       <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="31"/>
-      <c r="Z5" s="31"/>
-      <c r="AA5" s="31"/>
+      <c r="C5" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="30"/>
+      <c r="AA5" s="30"/>
     </row>
     <row r="6" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
@@ -1809,37 +1834,39 @@
       <c r="B6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="31"/>
-      <c r="W6" s="31"/>
-      <c r="X6" s="32"/>
-      <c r="Y6" s="31"/>
-      <c r="Z6" s="32"/>
-      <c r="AA6" s="32"/>
+      <c r="C6" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="31"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="31"/>
+      <c r="AA6" s="31"/>
     </row>
     <row r="7" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
@@ -1848,37 +1875,39 @@
       <c r="B7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="31"/>
-      <c r="V7" s="31"/>
-      <c r="W7" s="31"/>
-      <c r="X7" s="31"/>
-      <c r="Y7" s="31"/>
-      <c r="Z7" s="32"/>
-      <c r="AA7" s="32"/>
+      <c r="C7" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="31"/>
+      <c r="AA7" s="31"/>
     </row>
     <row r="8" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
@@ -1887,37 +1916,39 @@
       <c r="B8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="31"/>
-      <c r="V8" s="31"/>
-      <c r="W8" s="31"/>
-      <c r="X8" s="31"/>
-      <c r="Y8" s="31"/>
-      <c r="Z8" s="32"/>
-      <c r="AA8" s="32"/>
+      <c r="C8" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="31"/>
+      <c r="AA8" s="31"/>
     </row>
     <row r="9" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
@@ -1926,37 +1957,39 @@
       <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="31"/>
-      <c r="W9" s="31"/>
-      <c r="X9" s="31"/>
-      <c r="Y9" s="31"/>
-      <c r="Z9" s="32"/>
-      <c r="AA9" s="32"/>
+      <c r="C9" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="31"/>
+      <c r="AA9" s="31"/>
     </row>
     <row r="10" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
@@ -1965,37 +1998,39 @@
       <c r="B10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="31"/>
-      <c r="V10" s="31"/>
-      <c r="W10" s="31"/>
-      <c r="X10" s="31"/>
-      <c r="Y10" s="31"/>
-      <c r="Z10" s="31"/>
-      <c r="AA10" s="31"/>
+      <c r="C10" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="30"/>
+      <c r="AA10" s="30"/>
     </row>
     <row r="11" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
@@ -2004,37 +2039,39 @@
       <c r="B11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="31"/>
-      <c r="V11" s="31"/>
-      <c r="W11" s="31"/>
-      <c r="X11" s="31"/>
-      <c r="Y11" s="31"/>
-      <c r="Z11" s="31"/>
-      <c r="AA11" s="31"/>
+      <c r="C11" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="30"/>
     </row>
     <row r="12" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
@@ -2043,37 +2080,39 @@
       <c r="B12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="31"/>
-      <c r="W12" s="31"/>
-      <c r="X12" s="31"/>
-      <c r="Y12" s="31"/>
-      <c r="Z12" s="31"/>
-      <c r="AA12" s="31"/>
+      <c r="C12" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="30"/>
+      <c r="AA12" s="30"/>
     </row>
     <row r="13" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
@@ -2082,37 +2121,39 @@
       <c r="B13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="29"/>
-      <c r="U13" s="31"/>
-      <c r="V13" s="31"/>
-      <c r="W13" s="31"/>
-      <c r="X13" s="31"/>
-      <c r="Y13" s="31"/>
-      <c r="Z13" s="31"/>
-      <c r="AA13" s="31"/>
+      <c r="C13" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="30"/>
+      <c r="AA13" s="30"/>
     </row>
     <row r="14" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
@@ -2121,37 +2162,39 @@
       <c r="B14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="31"/>
-      <c r="V14" s="31"/>
-      <c r="W14" s="31"/>
-      <c r="X14" s="31"/>
-      <c r="Y14" s="31"/>
-      <c r="Z14" s="31"/>
-      <c r="AA14" s="31"/>
+      <c r="C14" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="30"/>
     </row>
     <row r="15" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
@@ -2160,37 +2203,39 @@
       <c r="B15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="29"/>
-      <c r="U15" s="31"/>
-      <c r="V15" s="31"/>
-      <c r="W15" s="31"/>
-      <c r="X15" s="31"/>
-      <c r="Y15" s="31"/>
-      <c r="Z15" s="31"/>
-      <c r="AA15" s="31"/>
+      <c r="C15" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="30"/>
+      <c r="V15" s="30"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="30"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="30"/>
     </row>
     <row r="16" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
@@ -2199,37 +2244,39 @@
       <c r="B16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="31"/>
-      <c r="V16" s="31"/>
-      <c r="W16" s="31"/>
-      <c r="X16" s="31"/>
-      <c r="Y16" s="31"/>
-      <c r="Z16" s="31"/>
-      <c r="AA16" s="31"/>
+      <c r="C16" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="30"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="30"/>
+      <c r="AA16" s="30"/>
     </row>
     <row r="17" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
@@ -2238,37 +2285,39 @@
       <c r="B17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="29"/>
-      <c r="U17" s="31"/>
-      <c r="V17" s="31"/>
-      <c r="W17" s="31"/>
-      <c r="X17" s="31"/>
-      <c r="Y17" s="31"/>
-      <c r="Z17" s="31"/>
-      <c r="AA17" s="31"/>
+      <c r="C17" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="30"/>
+      <c r="V17" s="30"/>
+      <c r="W17" s="30"/>
+      <c r="X17" s="30"/>
+      <c r="Y17" s="30"/>
+      <c r="Z17" s="30"/>
+      <c r="AA17" s="30"/>
     </row>
     <row r="18" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
@@ -2277,64 +2326,66 @@
       <c r="B18" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="31"/>
-      <c r="V18" s="31"/>
-      <c r="W18" s="31"/>
-      <c r="X18" s="31"/>
-      <c r="Y18" s="31"/>
-      <c r="Z18" s="31"/>
-      <c r="AA18" s="31"/>
+      <c r="C18" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="28"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="30"/>
+      <c r="Z18" s="30"/>
+      <c r="AA18" s="30"/>
     </row>
     <row r="19" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="31"/>
-      <c r="V19" s="31"/>
-      <c r="W19" s="31"/>
-      <c r="X19" s="31"/>
-      <c r="Y19" s="31"/>
-      <c r="Z19" s="31"/>
-      <c r="AA19" s="31"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="30"/>
+      <c r="V19" s="30"/>
+      <c r="W19" s="30"/>
+      <c r="X19" s="30"/>
+      <c r="Y19" s="30"/>
+      <c r="Z19" s="30"/>
+      <c r="AA19" s="30"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:N19">
@@ -2371,8 +2422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="200" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2395,466 +2446,476 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="40"/>
+      <c r="D1" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="39"/>
     </row>
     <row r="2" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="41"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="40"/>
     </row>
     <row r="3" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="40"/>
+      <c r="C3" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="39"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="40"/>
+      <c r="C4" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="39"/>
     </row>
     <row r="5" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="40"/>
+      <c r="C5" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="39"/>
     </row>
     <row r="6" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="41"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="40"/>
     </row>
     <row r="7" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="24"/>
+      <c r="C7" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="23"/>
     </row>
     <row r="8" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="24"/>
+      <c r="C8" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="23"/>
     </row>
     <row r="9" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12">
+      <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="24"/>
+      <c r="C9" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="23"/>
     </row>
     <row r="10" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12">
+      <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="40"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="39"/>
     </row>
     <row r="11" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12">
+      <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="24"/>
+      <c r="C11" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="23"/>
     </row>
     <row r="12" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12">
+      <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="40"/>
+      <c r="C12" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="39"/>
     </row>
     <row r="13" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12">
+      <c r="A13" s="11">
         <v>12</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="24"/>
+      <c r="C13" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="23"/>
     </row>
     <row r="14" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12">
+      <c r="A14" s="11">
         <v>13</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="40"/>
+      <c r="C14" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="39"/>
     </row>
     <row r="15" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12">
+      <c r="A15" s="11">
         <v>14</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="24"/>
+      <c r="C15" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="23"/>
     </row>
     <row r="16" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="12">
+      <c r="A16" s="11">
         <v>15</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="40"/>
+      <c r="C16" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="39"/>
     </row>
     <row r="17" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12">
+      <c r="A17" s="11">
         <v>16</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="24"/>
+      <c r="C17" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="23"/>
     </row>
     <row r="18" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="12">
+      <c r="A18" s="11">
         <v>17</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="23"/>
     </row>
     <row r="19" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="38"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="37"/>
     </row>
     <row r="20" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M20" s="21"/>
-      <c r="N20" s="22"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="21"/>
     </row>
     <row r="21" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="22"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="21"/>
     </row>
     <row r="22" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="22"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="21"/>
     </row>
     <row r="23" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="22"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="21"/>
     </row>
     <row r="24" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="22"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="21"/>
     </row>
     <row r="25" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
     </row>
     <row r="26" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sem1/Успеваемость_С-ИП-21-1.xlsx
+++ b/sem1/Успеваемость_С-ИП-21-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/software-modeling-and-analysis/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251B6130-400D-F046-A413-EC579C873B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BF392E-2E92-9048-9DD0-D26EF0F4C64D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27420" windowHeight="16820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="24">
   <si>
     <t>№</t>
   </si>
@@ -1608,7 +1608,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="185" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G8" sqref="G8"/>
+      <selection pane="topRight" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1641,8 +1641,12 @@
       <c r="F1" s="44">
         <v>45196</v>
       </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
+      <c r="G1" s="44">
+        <v>45202</v>
+      </c>
+      <c r="H1" s="44">
+        <v>45210</v>
+      </c>
       <c r="I1" s="44"/>
       <c r="J1" s="44"/>
       <c r="K1" s="4"/>
@@ -1682,8 +1686,12 @@
       <c r="F2" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
+      <c r="G2" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="41" t="s">
+        <v>19</v>
+      </c>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
       <c r="K2" s="8"/>
@@ -1723,8 +1731,12 @@
       <c r="F3" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
+      <c r="G3" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>19</v>
+      </c>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
       <c r="K3" s="8"/>
@@ -1764,8 +1776,12 @@
       <c r="F4" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
+      <c r="G4" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="41" t="s">
+        <v>19</v>
+      </c>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
       <c r="K4" s="8"/>
@@ -1805,8 +1821,12 @@
       <c r="F5" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
+      <c r="G5" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="41" t="s">
+        <v>19</v>
+      </c>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
       <c r="K5" s="8"/>
@@ -1846,8 +1866,12 @@
       <c r="F6" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+      <c r="G6" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="41" t="s">
+        <v>20</v>
+      </c>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
       <c r="K6" s="8"/>
@@ -1887,8 +1911,12 @@
       <c r="F7" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
+      <c r="G7" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="41" t="s">
+        <v>20</v>
+      </c>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
       <c r="K7" s="8"/>
@@ -1928,8 +1956,12 @@
       <c r="F8" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
+      <c r="G8" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>20</v>
+      </c>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
       <c r="K8" s="8"/>
@@ -1964,13 +1996,17 @@
         <v>19</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F9" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
+        <v>22</v>
+      </c>
+      <c r="G9" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="41" t="s">
+        <v>19</v>
+      </c>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
       <c r="K9" s="8"/>
@@ -2010,8 +2046,12 @@
       <c r="F10" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
+      <c r="G10" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="41" t="s">
+        <v>19</v>
+      </c>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
       <c r="K10" s="8"/>
@@ -2046,13 +2086,17 @@
         <v>19</v>
       </c>
       <c r="E11" s="41" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F11" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
+        <v>22</v>
+      </c>
+      <c r="G11" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="41" t="s">
+        <v>19</v>
+      </c>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
       <c r="K11" s="8"/>
@@ -2092,8 +2136,12 @@
       <c r="F12" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
+      <c r="G12" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="41" t="s">
+        <v>19</v>
+      </c>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
       <c r="K12" s="8"/>
@@ -2133,8 +2181,12 @@
       <c r="F13" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
+      <c r="G13" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="41" t="s">
+        <v>19</v>
+      </c>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
       <c r="K13" s="8"/>
@@ -2174,8 +2226,12 @@
       <c r="F14" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
+      <c r="G14" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="41" t="s">
+        <v>20</v>
+      </c>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
       <c r="K14" s="8"/>
@@ -2215,8 +2271,12 @@
       <c r="F15" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
+      <c r="G15" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="41" t="s">
+        <v>19</v>
+      </c>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
       <c r="K15" s="8"/>
@@ -2256,8 +2316,12 @@
       <c r="F16" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
+      <c r="G16" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="41" t="s">
+        <v>19</v>
+      </c>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
       <c r="K16" s="8"/>
@@ -2297,8 +2361,12 @@
       <c r="F17" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
+      <c r="G17" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="41" t="s">
+        <v>19</v>
+      </c>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
       <c r="K17" s="8"/>
@@ -2338,8 +2406,12 @@
       <c r="F18" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
+      <c r="G18" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="41" t="s">
+        <v>20</v>
+      </c>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
       <c r="K18" s="8"/>
@@ -2423,7 +2495,7 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2495,7 +2567,9 @@
       <c r="C3" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="15"/>
+      <c r="D3" s="42" t="s">
+        <v>19</v>
+      </c>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
@@ -2515,7 +2589,9 @@
       <c r="C4" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="15"/>
+      <c r="D4" s="42" t="s">
+        <v>19</v>
+      </c>
       <c r="E4" s="14"/>
       <c r="F4" s="15"/>
       <c r="G4" s="14"/>
@@ -2535,7 +2611,9 @@
       <c r="C5" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="15"/>
+      <c r="D5" s="42" t="s">
+        <v>19</v>
+      </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
@@ -2613,7 +2691,9 @@
       <c r="C9" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="15"/>
+      <c r="D9" s="42" t="s">
+        <v>19</v>
+      </c>
       <c r="E9" s="15"/>
       <c r="F9" s="14"/>
       <c r="G9" s="15"/>
@@ -2630,8 +2710,12 @@
       <c r="B10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
+      <c r="C10" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>19</v>
+      </c>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
@@ -2651,7 +2735,9 @@
       <c r="C11" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="15"/>
+      <c r="D11" s="42" t="s">
+        <v>19</v>
+      </c>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
@@ -2671,7 +2757,9 @@
       <c r="C12" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="42" t="s">
+        <v>19</v>
+      </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
@@ -2733,7 +2821,9 @@
       <c r="C15" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="15"/>
+      <c r="D15" s="42" t="s">
+        <v>19</v>
+      </c>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
       <c r="G15" s="14"/>

--- a/sem1/Успеваемость_С-ИП-21-1.xlsx
+++ b/sem1/Успеваемость_С-ИП-21-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/software-modeling-and-analysis/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BF392E-2E92-9048-9DD0-D26EF0F4C64D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A783B41-476E-EE49-A456-42A9F1052A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27420" windowHeight="16820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1600" yWindow="2300" windowWidth="25600" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="27">
   <si>
     <t>№</t>
   </si>
@@ -105,6 +105,15 @@
   <si>
     <t>Лаб 2</t>
   </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>Лаб 3</t>
+  </si>
+  <si>
+    <t>Лаб 4</t>
+  </si>
 </sst>
 </file>
 
@@ -113,7 +122,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\.m"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -141,6 +150,11 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -285,23 +299,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -393,6 +403,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1606,19 +1622,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA19"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="185" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H19" sqref="H19"/>
+    <sheetView showGridLines="0" zoomScale="200" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="34.5" style="1" customWidth="1"/>
-    <col min="3" max="6" width="6.33203125" style="45" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="9.1640625" style="45" customWidth="1"/>
-    <col min="11" max="18" width="9.1640625" style="1" customWidth="1"/>
-    <col min="19" max="21" width="8.83203125" style="1" customWidth="1"/>
+    <col min="3" max="11" width="6.33203125" style="41" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="6.6640625" style="41" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="9.1640625" style="41" customWidth="1"/>
+    <col min="19" max="19" width="8.83203125" style="41" customWidth="1"/>
+    <col min="20" max="21" width="8.83203125" style="1" customWidth="1"/>
     <col min="22" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -1629,835 +1646,1015 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="44">
+      <c r="C1" s="40">
         <v>45174</v>
       </c>
-      <c r="D1" s="44">
+      <c r="D1" s="40">
         <v>45182</v>
       </c>
-      <c r="E1" s="44">
+      <c r="E1" s="40">
         <v>45188</v>
       </c>
-      <c r="F1" s="44">
+      <c r="F1" s="40">
         <v>45196</v>
       </c>
-      <c r="G1" s="44">
+      <c r="G1" s="40">
         <v>45202</v>
       </c>
-      <c r="H1" s="44">
+      <c r="H1" s="40">
         <v>45210</v>
       </c>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
+      <c r="I1" s="40">
+        <v>45216</v>
+      </c>
+      <c r="J1" s="40">
+        <v>45224</v>
+      </c>
+      <c r="K1" s="3">
+        <v>45230</v>
+      </c>
+      <c r="L1" s="40">
+        <v>45238</v>
+      </c>
+      <c r="M1" s="40">
+        <v>45244</v>
+      </c>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
     </row>
     <row r="2" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="30"/>
+      <c r="C2" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
     </row>
     <row r="3" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30"/>
-      <c r="AA3" s="30"/>
+      <c r="C3" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
     </row>
     <row r="4" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="30"/>
-      <c r="Z4" s="30"/>
-      <c r="AA4" s="30"/>
+      <c r="C4" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="26"/>
     </row>
     <row r="5" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="30"/>
-      <c r="V5" s="30"/>
-      <c r="W5" s="30"/>
-      <c r="X5" s="30"/>
-      <c r="Y5" s="30"/>
-      <c r="Z5" s="30"/>
-      <c r="AA5" s="30"/>
+      <c r="C5" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="26"/>
     </row>
     <row r="6" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="31"/>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="31"/>
-      <c r="AA6" s="31"/>
+      <c r="C6" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="27"/>
     </row>
     <row r="7" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="30"/>
-      <c r="X7" s="30"/>
-      <c r="Y7" s="30"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="31"/>
+      <c r="C7" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="27"/>
     </row>
     <row r="8" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="30"/>
-      <c r="V8" s="30"/>
-      <c r="W8" s="30"/>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="30"/>
-      <c r="Z8" s="31"/>
-      <c r="AA8" s="31"/>
+      <c r="C8" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="27"/>
+      <c r="AA8" s="27"/>
     </row>
     <row r="9" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="41" t="s">
+      <c r="C9" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="41" t="s">
+      <c r="F9" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30"/>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="31"/>
-      <c r="AA9" s="31"/>
+      <c r="G9" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="27"/>
     </row>
     <row r="10" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="28"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="30"/>
-      <c r="W10" s="30"/>
-      <c r="X10" s="30"/>
-      <c r="Y10" s="30"/>
-      <c r="Z10" s="30"/>
-      <c r="AA10" s="30"/>
+      <c r="C10" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="44"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="26"/>
     </row>
     <row r="11" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="41" t="s">
+      <c r="C11" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="41" t="s">
+      <c r="F11" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="30"/>
-      <c r="W11" s="30"/>
-      <c r="X11" s="30"/>
-      <c r="Y11" s="30"/>
-      <c r="Z11" s="30"/>
-      <c r="AA11" s="30"/>
+      <c r="G11" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="26"/>
     </row>
     <row r="12" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="30"/>
-      <c r="W12" s="30"/>
-      <c r="X12" s="30"/>
-      <c r="Y12" s="30"/>
-      <c r="Z12" s="30"/>
-      <c r="AA12" s="30"/>
+      <c r="C12" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="26"/>
+      <c r="AA12" s="26"/>
     </row>
     <row r="13" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="30"/>
-      <c r="V13" s="30"/>
-      <c r="W13" s="30"/>
-      <c r="X13" s="30"/>
-      <c r="Y13" s="30"/>
-      <c r="Z13" s="30"/>
-      <c r="AA13" s="30"/>
+      <c r="E13" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="26"/>
     </row>
     <row r="14" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="30"/>
-      <c r="V14" s="30"/>
-      <c r="W14" s="30"/>
-      <c r="X14" s="30"/>
-      <c r="Y14" s="30"/>
-      <c r="Z14" s="30"/>
-      <c r="AA14" s="30"/>
+      <c r="C14" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="44"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="26"/>
     </row>
     <row r="15" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="30"/>
-      <c r="W15" s="30"/>
-      <c r="X15" s="30"/>
-      <c r="Y15" s="30"/>
-      <c r="Z15" s="30"/>
-      <c r="AA15" s="30"/>
+      <c r="C15" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="26"/>
     </row>
     <row r="16" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="28"/>
-      <c r="U16" s="30"/>
-      <c r="V16" s="30"/>
-      <c r="W16" s="30"/>
-      <c r="X16" s="30"/>
-      <c r="Y16" s="30"/>
-      <c r="Z16" s="30"/>
-      <c r="AA16" s="30"/>
+      <c r="C16" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="26"/>
+      <c r="AA16" s="26"/>
     </row>
     <row r="17" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="30"/>
-      <c r="V17" s="30"/>
-      <c r="W17" s="30"/>
-      <c r="X17" s="30"/>
-      <c r="Y17" s="30"/>
-      <c r="Z17" s="30"/>
-      <c r="AA17" s="30"/>
+      <c r="C17" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="44"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="26"/>
+      <c r="Z17" s="26"/>
+      <c r="AA17" s="26"/>
     </row>
     <row r="18" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="30"/>
-      <c r="V18" s="30"/>
-      <c r="W18" s="30"/>
-      <c r="X18" s="30"/>
-      <c r="Y18" s="30"/>
-      <c r="Z18" s="30"/>
-      <c r="AA18" s="30"/>
+      <c r="C18" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="24"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="26"/>
+      <c r="AA18" s="26"/>
     </row>
     <row r="19" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="30"/>
-      <c r="V19" s="30"/>
-      <c r="W19" s="30"/>
-      <c r="X19" s="30"/>
-      <c r="Y19" s="30"/>
-      <c r="Z19" s="30"/>
-      <c r="AA19" s="30"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="24"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="26"/>
+      <c r="Y19" s="26"/>
+      <c r="Z19" s="26"/>
+      <c r="AA19" s="26"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:N19">
@@ -2494,18 +2691,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="167" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="36.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="5.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.1640625" style="1" customWidth="1"/>
@@ -2518,496 +2712,519 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="39"/>
+      <c r="E1" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="9"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="35"/>
     </row>
     <row r="2" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="40"/>
+      <c r="C2" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="36"/>
     </row>
     <row r="3" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="39"/>
+      <c r="C3" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="35"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="39"/>
+      <c r="C4" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="35"/>
     </row>
     <row r="5" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="39"/>
+      <c r="C5" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="35"/>
     </row>
     <row r="6" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="40"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="36"/>
     </row>
     <row r="7" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="11">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="23"/>
+      <c r="C7" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="19"/>
     </row>
     <row r="8" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="23"/>
+      <c r="C8" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="19"/>
     </row>
     <row r="9" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="23"/>
+      <c r="C9" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="19"/>
     </row>
     <row r="10" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="39"/>
+      <c r="C10" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="35"/>
     </row>
     <row r="11" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="23"/>
+      <c r="C11" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="19"/>
     </row>
     <row r="12" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="11">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="39"/>
+      <c r="C12" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="35"/>
     </row>
     <row r="13" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="23"/>
+      <c r="C13" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="19"/>
     </row>
     <row r="14" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="11">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="39"/>
+      <c r="C14" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="35"/>
     </row>
     <row r="15" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="11">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="23"/>
+      <c r="C15" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="19"/>
     </row>
     <row r="16" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="11">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="39"/>
+      <c r="C16" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="35"/>
     </row>
     <row r="17" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="11">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="23"/>
+      <c r="C17" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="19"/>
     </row>
     <row r="18" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="11">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="23"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="19"/>
     </row>
     <row r="19" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="37"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="33"/>
     </row>
     <row r="20" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M20" s="20"/>
-      <c r="N20" s="21"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="17"/>
     </row>
     <row r="21" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="21"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="17"/>
     </row>
     <row r="22" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="21"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="17"/>
     </row>
     <row r="23" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="21"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="17"/>
     </row>
     <row r="24" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="21"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="17"/>
     </row>
     <row r="25" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
     </row>
     <row r="26" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>

--- a/sem1/Успеваемость_С-ИП-21-1.xlsx
+++ b/sem1/Успеваемость_С-ИП-21-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/software-modeling-and-analysis/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A783B41-476E-EE49-A456-42A9F1052A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555E5CA3-C7E1-094C-87A0-CE1497D4CFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="2300" windowWidth="25600" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1600" yWindow="2300" windowWidth="25600" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="27">
   <si>
     <t>№</t>
   </si>
@@ -137,12 +137,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -155,6 +149,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -305,9 +305,6 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -375,25 +372,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -402,7 +399,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -411,11 +408,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1622,19 +1682,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA19"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="200" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L12" sqref="L12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="34.5" style="1" customWidth="1"/>
-    <col min="3" max="11" width="6.33203125" style="41" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="6.6640625" style="41" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="9.1640625" style="41" customWidth="1"/>
-    <col min="19" max="19" width="8.83203125" style="41" customWidth="1"/>
+    <col min="3" max="11" width="6.33203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="6.6640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="9.1640625" style="40" customWidth="1"/>
+    <col min="19" max="19" width="8.83203125" style="40" customWidth="1"/>
     <col min="20" max="21" width="8.83203125" style="1" customWidth="1"/>
     <col min="22" max="16384" width="8.83203125" style="1"/>
   </cols>
@@ -1646,1037 +1706,1120 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40">
+      <c r="C1" s="39">
         <v>45174</v>
       </c>
-      <c r="D1" s="40">
+      <c r="D1" s="39">
         <v>45182</v>
       </c>
-      <c r="E1" s="40">
+      <c r="E1" s="39">
         <v>45188</v>
       </c>
-      <c r="F1" s="40">
+      <c r="F1" s="39">
         <v>45196</v>
       </c>
-      <c r="G1" s="40">
+      <c r="G1" s="39">
         <v>45202</v>
       </c>
-      <c r="H1" s="40">
+      <c r="H1" s="39">
         <v>45210</v>
       </c>
-      <c r="I1" s="40">
+      <c r="I1" s="39">
         <v>45216</v>
       </c>
-      <c r="J1" s="40">
+      <c r="J1" s="39">
         <v>45224</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="44">
         <v>45230</v>
       </c>
-      <c r="L1" s="40">
+      <c r="L1" s="39">
         <v>45238</v>
       </c>
-      <c r="M1" s="40">
+      <c r="M1" s="39">
         <v>45244</v>
       </c>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
+      <c r="N1" s="39">
+        <v>45252</v>
+      </c>
+      <c r="O1" s="39">
+        <v>45258</v>
+      </c>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
     </row>
     <row r="2" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
+      <c r="C2" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
     </row>
     <row r="3" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="26"/>
+      <c r="C3" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25"/>
+      <c r="AA3" s="25"/>
     </row>
     <row r="4" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="26"/>
-      <c r="AA4" s="26"/>
+      <c r="C4" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="25"/>
     </row>
     <row r="5" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="44"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="26"/>
-      <c r="AA5" s="26"/>
+      <c r="C5" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="25"/>
     </row>
     <row r="6" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="44"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="27"/>
-      <c r="AA6" s="27"/>
+      <c r="C6" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="26"/>
     </row>
     <row r="7" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="37" t="s">
+      <c r="C7" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="24"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="27"/>
+      <c r="J7" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="26"/>
     </row>
     <row r="8" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="37" t="s">
+      <c r="C8" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="27"/>
-      <c r="AA8" s="27"/>
+      <c r="J8" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="25"/>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="26"/>
     </row>
     <row r="9" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="37" t="s">
+      <c r="C9" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="44"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="26"/>
-      <c r="W9" s="26"/>
-      <c r="X9" s="26"/>
-      <c r="Y9" s="26"/>
-      <c r="Z9" s="27"/>
-      <c r="AA9" s="27"/>
+      <c r="G9" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="26"/>
     </row>
     <row r="10" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="44"/>
-      <c r="T10" s="24"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="26"/>
-      <c r="X10" s="26"/>
-      <c r="Y10" s="26"/>
-      <c r="Z10" s="26"/>
-      <c r="AA10" s="26"/>
+      <c r="C10" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="25"/>
+      <c r="X10" s="25"/>
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="25"/>
     </row>
     <row r="11" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="37" t="s">
+      <c r="C11" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="37" t="s">
+      <c r="F11" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="M11" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="44"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
-      <c r="W11" s="26"/>
-      <c r="X11" s="26"/>
-      <c r="Y11" s="26"/>
-      <c r="Z11" s="26"/>
-      <c r="AA11" s="26"/>
+      <c r="G11" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="25"/>
     </row>
     <row r="12" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="M12" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="44"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="26"/>
-      <c r="W12" s="26"/>
-      <c r="X12" s="26"/>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="26"/>
-      <c r="AA12" s="26"/>
+      <c r="C12" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="43"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="25"/>
     </row>
     <row r="13" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="M13" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="44"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="26"/>
-      <c r="X13" s="26"/>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="26"/>
-      <c r="AA13" s="26"/>
+      <c r="E13" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="43"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="25"/>
     </row>
     <row r="14" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="M14" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="44"/>
-      <c r="T14" s="24"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="26"/>
-      <c r="W14" s="26"/>
-      <c r="X14" s="26"/>
-      <c r="Y14" s="26"/>
-      <c r="Z14" s="26"/>
-      <c r="AA14" s="26"/>
+      <c r="C14" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="25"/>
     </row>
     <row r="15" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="L15" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="M15" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="44"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="26"/>
-      <c r="W15" s="26"/>
-      <c r="X15" s="26"/>
-      <c r="Y15" s="26"/>
-      <c r="Z15" s="26"/>
-      <c r="AA15" s="26"/>
+      <c r="C15" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="O15" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="43"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="25"/>
     </row>
     <row r="16" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="K16" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="L16" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="M16" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="44"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="26"/>
-      <c r="V16" s="26"/>
-      <c r="W16" s="26"/>
-      <c r="X16" s="26"/>
-      <c r="Y16" s="26"/>
-      <c r="Z16" s="26"/>
-      <c r="AA16" s="26"/>
+      <c r="C16" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="O16" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="43"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="25"/>
     </row>
     <row r="17" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="L17" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="M17" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="44"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="26"/>
-      <c r="V17" s="26"/>
-      <c r="W17" s="26"/>
-      <c r="X17" s="26"/>
-      <c r="Y17" s="26"/>
-      <c r="Z17" s="26"/>
-      <c r="AA17" s="26"/>
+      <c r="C17" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="O17" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="43"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="25"/>
+      <c r="X17" s="25"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="25"/>
     </row>
     <row r="18" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="L18" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="M18" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="44"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="26"/>
-      <c r="W18" s="26"/>
-      <c r="X18" s="26"/>
-      <c r="Y18" s="26"/>
-      <c r="Z18" s="26"/>
-      <c r="AA18" s="26"/>
+      <c r="C18" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="N18" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="25"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="25"/>
     </row>
     <row r="19" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="44"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="26"/>
-      <c r="V19" s="26"/>
-      <c r="W19" s="26"/>
-      <c r="X19" s="26"/>
-      <c r="Y19" s="26"/>
-      <c r="Z19" s="26"/>
-      <c r="AA19" s="26"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="43"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="25"/>
+      <c r="X19" s="25"/>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="25"/>
+      <c r="AA19" s="25"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:N19">
-    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="6" stopIfTrue="1" operator="equal">
       <formula>"#"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="7" stopIfTrue="1" operator="equal">
       <formula>"+"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="8" stopIfTrue="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2:T19">
-    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="9" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:XFD18">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"+"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"="</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.70078700000000005" right="0.70078700000000005" top="0.751969" bottom="0.751969" header="0.3" footer="0.3"/>
@@ -2691,8 +2834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="167" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView showGridLines="0" zoomScale="167" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2712,519 +2855,531 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="35"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="34"/>
     </row>
     <row r="2" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="36"/>
+      <c r="C2" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="35"/>
     </row>
     <row r="3" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="35"/>
+      <c r="C3" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="35"/>
+      <c r="C4" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="34"/>
     </row>
     <row r="5" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="35"/>
+      <c r="C5" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="34"/>
     </row>
     <row r="6" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="36"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="35"/>
     </row>
     <row r="7" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="19"/>
+      <c r="C7" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="18"/>
     </row>
     <row r="8" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="19"/>
+      <c r="C8" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="18"/>
     </row>
     <row r="9" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="19"/>
+      <c r="C9" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="18"/>
     </row>
     <row r="10" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="35"/>
+      <c r="C10" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="34"/>
     </row>
     <row r="11" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="19"/>
+      <c r="C11" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="18"/>
     </row>
     <row r="12" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="35"/>
+      <c r="C12" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="34"/>
     </row>
     <row r="13" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="19"/>
+      <c r="C13" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="18"/>
     </row>
     <row r="14" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="35"/>
+      <c r="C14" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="34"/>
     </row>
     <row r="15" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="19"/>
+      <c r="C15" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="18"/>
     </row>
     <row r="16" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="35"/>
+      <c r="C16" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="34"/>
     </row>
     <row r="17" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="19"/>
+      <c r="C17" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="20"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="18"/>
     </row>
     <row r="18" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="19"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="18"/>
     </row>
     <row r="19" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="33"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="32"/>
     </row>
     <row r="20" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M20" s="16"/>
-      <c r="N20" s="17"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="16"/>
     </row>
     <row r="21" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="17"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="16"/>
     </row>
     <row r="22" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="17"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="16"/>
     </row>
     <row r="23" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="17"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="16"/>
     </row>
     <row r="24" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="17"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="16"/>
     </row>
     <row r="25" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
     </row>
     <row r="26" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
